--- a/data/trans_bre/P18_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P18_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>46,15%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-56,91%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,22 +694,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 7,54</t>
+          <t>-7,82; 8,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,9</t>
+          <t>0,0; 10,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 0,0</t>
+          <t>-18,33; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -702,6 +728,16 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,47</t>
+          <t>-12,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-8,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>217,11%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-39,69%</t>
         </is>
       </c>
     </row>
@@ -768,27 +814,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 0,0</t>
+          <t>-47,54; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 11,32</t>
+          <t>-5,27; 6,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 2,02</t>
+          <t>-7,68; 3,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,99; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -802,6 +848,16 @@
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-66,28%</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,73%</t>
+          <t>-81,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-27,94%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>72,08%</t>
+          <t>-41,38%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>53,02%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>60,97%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 0,98</t>
+          <t>-11,22; 0,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 3,09</t>
+          <t>-3,53; 6,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 3,34</t>
+          <t>-14,06; 4,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 6,13</t>
+          <t>-4,14; 4,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 131,32</t>
+          <t>-4,48; 8,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-77,45; 99,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,69; 760,37</t>
+          <t>-83,27; 97,95</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>79,33%</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>77,45%</t>
+          <t>89,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>57,4%</t>
+          <t>462,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>118,57%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-14,95%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 12,77</t>
+          <t>-1,72; 15,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 5,93</t>
+          <t>0,62; 11,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 7,08</t>
+          <t>-1,89; 12,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 4,0</t>
+          <t>-7,55; 6,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 292,84</t>
+          <t>-7,82; 5,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,05; 487,15</t>
+          <t>-20,3; 404,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,81; 472,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,6; 257,6</t>
+          <t>-42,65; 1060,6</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-82,05; 429,35</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-83,7; 322,06</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>55,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>-38,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-29,49%</t>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-19,5%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 13,36</t>
+          <t>-4,13; 23,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 5,58</t>
+          <t>-8,96; 5,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 11,62</t>
+          <t>-9,95; 15,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 4,68</t>
+          <t>-10,79; 8,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 128,74</t>
+          <t>-7,3; 11,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-83,04; 300,68</t>
+          <t>-27,62; 289,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-42,74; 290,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-80,25; 117,34</t>
+          <t>-69,44; 295,88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 416,1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 827,73</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,41</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>85,98%</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>699,6%</t>
+          <t>51,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>389,08%</t>
+          <t>197,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>202,79%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-24,96%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>26,06%</t>
         </is>
       </c>
     </row>
@@ -1168,32 +1294,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 22,92</t>
+          <t>-9,83; 24,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 21,95</t>
+          <t>-4,09; 17,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,69; 13,72</t>
+          <t>2,54; 22,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 20,25</t>
+          <t>-13,58; 7,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 281,54</t>
+          <t>-14,32; 12,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,59; 303,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1329,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,04; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>71,23%</t>
+          <t>-2,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>43,85%</t>
+          <t>114,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>28,1%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-21,63%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 4,56</t>
+          <t>-8,19; 4,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 3,83</t>
+          <t>0,01; 4,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 4,21</t>
+          <t>-2,36; 4,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,46</t>
+          <t>-4,25; 1,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 65,78</t>
+          <t>-2,64; 3,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 209,9</t>
+          <t>-53,56; 65,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 142,41</t>
+          <t>-16,85; 484,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-32,14; 133,89</t>
+          <t>-34,11; 133,79</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-63,37; 83,6</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-59,19; 174,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
